--- a/natmiOut/OldD4/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Pgf-Nrp2.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H2">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I2">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J2">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N2">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O2">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P2">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q2">
-        <v>126.402665831825</v>
+        <v>770.997459234574</v>
       </c>
       <c r="R2">
-        <v>126.402665831825</v>
+        <v>6938.977133111166</v>
       </c>
       <c r="S2">
-        <v>0.2419918175281646</v>
+        <v>0.3797680373628416</v>
       </c>
       <c r="T2">
-        <v>0.2419918175281646</v>
+        <v>0.4053843881163074</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H3">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I3">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J3">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N3">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P3">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q3">
-        <v>44.62483163909796</v>
+        <v>260.87839350326</v>
       </c>
       <c r="R3">
-        <v>44.62483163909796</v>
+        <v>2347.90554152934</v>
       </c>
       <c r="S3">
-        <v>0.08543209151618053</v>
+        <v>0.1285001322695168</v>
       </c>
       <c r="T3">
-        <v>0.08543209151618053</v>
+        <v>0.1371678034167274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H4">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I4">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J4">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N4">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O4">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P4">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q4">
-        <v>41.64590471489166</v>
+        <v>237.776373800108</v>
       </c>
       <c r="R4">
-        <v>41.64590471489166</v>
+        <v>2139.987364200972</v>
       </c>
       <c r="S4">
-        <v>0.07972907935319838</v>
+        <v>0.1171208357793653</v>
       </c>
       <c r="T4">
-        <v>0.07972907935319838</v>
+        <v>0.1250209435153852</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H5">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I5">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J5">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N5">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O5">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P5">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q5">
-        <v>56.03305498856801</v>
+        <v>307.212668925552</v>
       </c>
       <c r="R5">
-        <v>56.03305498856801</v>
+        <v>2764.914020329968</v>
       </c>
       <c r="S5">
-        <v>0.1072725858201419</v>
+        <v>0.1513228752357806</v>
       </c>
       <c r="T5">
-        <v>0.1072725858201419</v>
+        <v>0.1615300002902758</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.27681666984828</v>
+        <v>17.470401</v>
       </c>
       <c r="H6">
-        <v>3.27681666984828</v>
+        <v>52.411203</v>
       </c>
       <c r="I6">
-        <v>0.5724198425175604</v>
+        <v>0.8600988665959021</v>
       </c>
       <c r="J6">
-        <v>0.5724198425175604</v>
+        <v>0.8884442399952684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N6">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O6">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P6">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q6">
-        <v>30.29288424273733</v>
+        <v>169.2905878701375</v>
       </c>
       <c r="R6">
-        <v>30.29288424273733</v>
+        <v>1015.743527220825</v>
       </c>
       <c r="S6">
-        <v>0.05799426829987503</v>
+        <v>0.08338698594839777</v>
       </c>
       <c r="T6">
-        <v>0.05799426829987503</v>
+        <v>0.05934110465657264</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H7">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I7">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J7">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N7">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O7">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P7">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q7">
-        <v>32.15901076835423</v>
+        <v>39.61003044833512</v>
       </c>
       <c r="R7">
-        <v>32.15901076835423</v>
+        <v>356.490274035016</v>
       </c>
       <c r="S7">
-        <v>0.06156687768037951</v>
+        <v>0.01951060064216106</v>
       </c>
       <c r="T7">
-        <v>0.06156687768037951</v>
+        <v>0.02082664185755928</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H8">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I8">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J8">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N8">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P8">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q8">
-        <v>11.35332417060801</v>
+        <v>13.40263964064889</v>
       </c>
       <c r="R8">
-        <v>11.35332417060801</v>
+        <v>120.62375676584</v>
       </c>
       <c r="S8">
-        <v>0.02173539246939003</v>
+        <v>0.006601700292065507</v>
       </c>
       <c r="T8">
-        <v>0.02173539246939003</v>
+        <v>0.007047002301747889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H9">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I9">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J9">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N9">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O9">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P9">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q9">
-        <v>10.59543395996048</v>
+        <v>12.21577230029689</v>
       </c>
       <c r="R9">
-        <v>10.59543395996048</v>
+        <v>109.941950702672</v>
       </c>
       <c r="S9">
-        <v>0.02028444815303035</v>
+        <v>0.006017088403846039</v>
       </c>
       <c r="T9">
-        <v>0.02028444815303035</v>
+        <v>0.0064229568074586</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H10">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I10">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J10">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N10">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O10">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P10">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q10">
-        <v>14.25577227270355</v>
+        <v>15.783065202752</v>
       </c>
       <c r="R10">
-        <v>14.25577227270355</v>
+        <v>142.047586824768</v>
       </c>
       <c r="S10">
-        <v>0.02729198960984712</v>
+        <v>0.007774219777026862</v>
       </c>
       <c r="T10">
-        <v>0.02729198960984712</v>
+        <v>0.008298611303037724</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.833678482001142</v>
+        <v>0.8975426666666667</v>
       </c>
       <c r="H11">
-        <v>0.833678482001142</v>
+        <v>2.692628</v>
       </c>
       <c r="I11">
-        <v>0.1456334465606426</v>
+        <v>0.04418761940962108</v>
       </c>
       <c r="J11">
-        <v>0.1456334465606426</v>
+        <v>0.04564386429080782</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N11">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O11">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P11">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q11">
-        <v>7.707030418668763</v>
+        <v>8.697311852116668</v>
       </c>
       <c r="R11">
-        <v>7.707030418668763</v>
+        <v>52.1838711127</v>
       </c>
       <c r="S11">
-        <v>0.01475473864799563</v>
+        <v>0.00428401029452162</v>
       </c>
       <c r="T11">
-        <v>0.01475473864799563</v>
+        <v>0.003048652021004324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H12">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I12">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J12">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>38.5748360580934</v>
+        <v>44.13164066666667</v>
       </c>
       <c r="N12">
-        <v>38.5748360580934</v>
+        <v>132.394922</v>
       </c>
       <c r="O12">
-        <v>0.422752321903902</v>
+        <v>0.4415399811720331</v>
       </c>
       <c r="P12">
-        <v>0.422752321903902</v>
+        <v>0.4562856844211927</v>
       </c>
       <c r="Q12">
-        <v>62.25992398566575</v>
+        <v>85.79813201733401</v>
       </c>
       <c r="R12">
-        <v>62.25992398566575</v>
+        <v>514.7887921040041</v>
       </c>
       <c r="S12">
-        <v>0.1191936266953579</v>
+        <v>0.04226134316703047</v>
       </c>
       <c r="T12">
-        <v>0.1191936266953579</v>
+        <v>0.03007465444732593</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H13">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I13">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J13">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.6183485788859</v>
+        <v>14.93259333333333</v>
       </c>
       <c r="N13">
-        <v>13.6183485788859</v>
+        <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1492472572936004</v>
+        <v>0.1494015830739255</v>
       </c>
       <c r="P13">
-        <v>0.1492472572936004</v>
+        <v>0.1543910098595022</v>
       </c>
       <c r="Q13">
-        <v>21.98006353299438</v>
+        <v>29.03106693566</v>
       </c>
       <c r="R13">
-        <v>21.98006353299438</v>
+        <v>174.18640161396</v>
       </c>
       <c r="S13">
-        <v>0.0420797733080298</v>
+        <v>0.01429975051234317</v>
       </c>
       <c r="T13">
-        <v>0.0420797733080298</v>
+        <v>0.01017620414102686</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H14">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I14">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J14">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.7092568522669</v>
+        <v>13.61024133333333</v>
       </c>
       <c r="N14">
-        <v>12.7092568522669</v>
+        <v>40.830724</v>
       </c>
       <c r="O14">
-        <v>0.1392842690472466</v>
+        <v>0.1361713639304118</v>
       </c>
       <c r="P14">
-        <v>0.1392842690472466</v>
+        <v>0.1407189532975654</v>
       </c>
       <c r="Q14">
-        <v>20.51278622013536</v>
+        <v>26.460228196028</v>
       </c>
       <c r="R14">
-        <v>20.51278622013536</v>
+        <v>158.761369176168</v>
       </c>
       <c r="S14">
-        <v>0.03927074154101783</v>
+        <v>0.01303343974720048</v>
       </c>
       <c r="T14">
-        <v>0.03927074154101783</v>
+        <v>0.009275052974721625</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H15">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I15">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J15">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.0998443410514</v>
+        <v>17.584752</v>
       </c>
       <c r="N15">
-        <v>17.0998443410514</v>
+        <v>52.754256</v>
       </c>
       <c r="O15">
-        <v>0.1874019344758319</v>
+        <v>0.1759366057935712</v>
       </c>
       <c r="P15">
-        <v>0.1874019344758319</v>
+        <v>0.1818121982434553</v>
       </c>
       <c r="Q15">
-        <v>27.5992102011074</v>
+        <v>34.187237338032</v>
       </c>
       <c r="R15">
-        <v>27.5992102011074</v>
+        <v>205.123424028192</v>
       </c>
       <c r="S15">
-        <v>0.05283735904584293</v>
+        <v>0.01683951078076375</v>
       </c>
       <c r="T15">
-        <v>0.05283735904584293</v>
+        <v>0.01198358665014184</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.61400359270232</v>
+        <v>1.944141</v>
       </c>
       <c r="H16">
-        <v>1.61400359270232</v>
+        <v>3.888282</v>
       </c>
       <c r="I16">
-        <v>0.281946710921797</v>
+        <v>0.09571351399447693</v>
       </c>
       <c r="J16">
-        <v>0.281946710921797</v>
+        <v>0.06591189571392365</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.24460758561141</v>
+        <v>9.690137500000001</v>
       </c>
       <c r="N16">
-        <v>9.24460758561141</v>
+        <v>19.380275</v>
       </c>
       <c r="O16">
-        <v>0.1013142172794192</v>
+        <v>0.09695046603005844</v>
       </c>
       <c r="P16">
-        <v>0.1013142172794192</v>
+        <v>0.06679215417828435</v>
       </c>
       <c r="Q16">
-        <v>14.92082985629994</v>
+        <v>18.8389936093875</v>
       </c>
       <c r="R16">
-        <v>14.92082985629994</v>
+        <v>75.35597443755</v>
       </c>
       <c r="S16">
-        <v>0.02856521033154854</v>
+        <v>0.009279469787139059</v>
       </c>
       <c r="T16">
-        <v>0.02856521033154854</v>
+        <v>0.004402397500707388</v>
       </c>
     </row>
   </sheetData>
